--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -65,6 +65,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">部署方式</t>
     </r>
@@ -76,6 +77,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -85,6 +87,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、检查是否已搭建</t>
     </r>
@@ -94,6 +97,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PXE</t>
     </r>
@@ -103,6 +107,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">部署系统环境</t>
     </r>
@@ -129,6 +134,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -138,6 +144,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、能否拷贝</t>
     </r>
@@ -147,6 +154,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Image</t>
     </r>
@@ -156,6 +164,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -165,6 +174,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">mini</t>
     </r>
@@ -174,6 +184,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">系统至</t>
     </r>
@@ -183,6 +194,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PXE</t>
     </r>
@@ -192,6 +204,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的</t>
     </r>
@@ -201,6 +214,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">tftp</t>
     </r>
@@ -210,6 +224,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">路径下</t>
     </r>
@@ -221,6 +236,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -230,6 +246,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、重启目标单板，进入</t>
     </r>
@@ -239,6 +256,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">UEFI</t>
     </r>
@@ -248,6 +266,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，验证能否以</t>
     </r>
@@ -257,6 +276,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PXE</t>
     </r>
@@ -266,6 +286,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">方式启动</t>
     </r>
@@ -277,6 +298,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4</t>
     </r>
@@ -286,6 +308,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、验证能否进入</t>
     </r>
@@ -295,6 +318,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">mini</t>
     </r>
@@ -304,6 +328,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">系统</t>
     </r>
@@ -325,6 +350,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">部署方式</t>
     </r>
@@ -336,6 +362,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -345,6 +372,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、解压文件系统到</t>
     </r>
@@ -354,6 +382,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NFS</t>
     </r>
@@ -363,6 +392,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">根目录下</t>
     </r>
@@ -374,6 +404,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -383,6 +414,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、配置</t>
     </r>
@@ -392,6 +424,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">grub</t>
     </r>
@@ -401,6 +434,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">支持</t>
     </r>
@@ -410,6 +444,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NFS</t>
     </r>
@@ -421,6 +456,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -430,6 +466,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、重启目标单板，测试系统能否以</t>
     </r>
@@ -439,6 +476,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NFS</t>
     </r>
@@ -448,20 +486,19 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">方式进入安装菜单</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">否</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">netboot</t>
     </r>
@@ -471,6 +508,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">部署方式</t>
     </r>
@@ -482,6 +520,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -491,6 +530,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、解压</t>
     </r>
@@ -500,6 +540,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">netboot.tar.gz</t>
     </r>
@@ -509,6 +550,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">到</t>
     </r>
@@ -518,6 +560,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NFS</t>
     </r>
@@ -527,6 +570,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">根目录下</t>
     </r>
@@ -538,6 +582,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -547,6 +592,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、配置</t>
     </r>
@@ -556,6 +602,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">grub</t>
     </r>
@@ -565,6 +612,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">支持</t>
     </r>
@@ -574,6 +622,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">netboot</t>
     </r>
@@ -583,6 +632,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">启动</t>
     </r>
@@ -594,6 +644,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -603,6 +654,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、重启目标单板，测试系统能否以</t>
     </r>
@@ -612,6 +664,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">netboot</t>
     </r>
@@ -621,6 +674,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">方式进入安装菜单</t>
     </r>
@@ -632,6 +686,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">网页方式部署
 </t>
@@ -652,6 +707,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">镜像</t>
     </r>
@@ -663,6 +719,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -672,6 +729,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、打开浏览器登陆</t>
     </r>
@@ -681,6 +739,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">BMC,</t>
     </r>
@@ -690,6 +749,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">找到</t>
     </r>
@@ -699,6 +759,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ISO</t>
     </r>
@@ -708,6 +769,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">装载页面</t>
     </r>
@@ -717,6 +779,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -726,6 +789,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">装入</t>
     </r>
@@ -735,6 +799,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">mini ISO</t>
     </r>
@@ -744,17 +809,22 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文件</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
+    <t xml:space="preserve">否</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -764,6 +834,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、连接</t>
     </r>
@@ -773,6 +844,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ISO</t>
     </r>
@@ -782,6 +854,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文件</t>
     </r>
@@ -791,6 +864,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -800,6 +874,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">配置从光驱启动</t>
     </r>
@@ -811,6 +886,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -820,6 +896,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、重启系统，测试系统能否进入安装菜单</t>
     </r>
@@ -831,6 +908,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">网页方式部署
 </t>
@@ -851,6 +929,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">镜像</t>
     </r>
@@ -862,6 +941,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -871,6 +951,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、打开浏览器登陆</t>
     </r>
@@ -880,6 +961,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">BMC,</t>
     </r>
@@ -889,6 +971,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">找到</t>
     </r>
@@ -898,6 +981,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ISO</t>
     </r>
@@ -907,6 +991,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">装载页面</t>
     </r>
@@ -916,6 +1001,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -925,6 +1011,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">装入</t>
     </r>
@@ -934,6 +1021,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">everything ISO</t>
     </r>
@@ -943,6 +1031,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文件</t>
     </r>
@@ -954,6 +1043,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -963,6 +1053,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、连接</t>
     </r>
@@ -972,6 +1063,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">everything ISO</t>
     </r>
@@ -981,6 +1073,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文件</t>
     </r>
@@ -990,6 +1083,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -999,6 +1093,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">配置从光驱启动</t>
     </r>
@@ -1020,6 +1115,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">命令方式部署
 </t>
@@ -1040,6 +1136,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">镜像
 </t>
@@ -1052,6 +1149,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -1061,6 +1159,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、强制关机</t>
     </r>
@@ -1075,6 +1174,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -1084,6 +1184,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、设置一次开机启动项为</t>
     </r>
@@ -1093,6 +1194,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">cdrom</t>
     </r>
@@ -1107,6 +1209,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -1116,6 +1219,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、拷贝要挂在的</t>
     </r>
@@ -1125,6 +1229,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">mini ISO</t>
     </r>
@@ -1134,6 +1239,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">到</t>
     </r>
@@ -1143,6 +1249,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NFS</t>
     </r>
@@ -1152,6 +1259,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">跟目录上</t>
     </r>
@@ -1163,6 +1271,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4</t>
     </r>
@@ -1172,6 +1281,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、通过</t>
     </r>
@@ -1181,6 +1291,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ibmc</t>
     </r>
@@ -1190,6 +1301,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">接口挂载</t>
     </r>
@@ -1199,6 +1311,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">mini ISO</t>
     </r>
@@ -1208,6 +1321,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">作为虚拟光驱</t>
     </r>
@@ -1219,6 +1333,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">5</t>
     </r>
@@ -1228,6 +1343,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、进入安装菜单</t>
     </r>
@@ -1249,6 +1365,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">命令方式部署
 </t>
@@ -1269,6 +1386,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">镜像</t>
     </r>
@@ -1280,6 +1398,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -1289,6 +1408,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、拷贝要挂在的</t>
     </r>
@@ -1298,6 +1418,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">everything ISO</t>
     </r>
@@ -1307,6 +1428,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">到</t>
     </r>
@@ -1316,6 +1438,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NFS</t>
     </r>
@@ -1325,6 +1448,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">跟目录上</t>
     </r>
@@ -1336,6 +1460,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4</t>
     </r>
@@ -1345,6 +1470,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、通过</t>
     </r>
@@ -1354,6 +1480,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ibmc</t>
     </r>
@@ -1363,6 +1490,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">接口挂载</t>
     </r>
@@ -1372,6 +1500,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">everything ISO</t>
     </r>
@@ -1381,6 +1510,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">作为虚拟光驱</t>
     </r>
@@ -1395,6 +1525,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -1404,6 +1535,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、测试</t>
     </r>
@@ -1413,6 +1545,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Installer menu</t>
     </r>
@@ -1422,6 +1555,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">是否正常</t>
     </r>
@@ -1433,6 +1567,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -1442,6 +1577,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、设置国家或者地区</t>
     </r>
@@ -1453,6 +1589,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -1462,6 +1599,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、设置语言</t>
     </r>
@@ -1473,6 +1611,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4</t>
     </r>
@@ -1482,6 +1621,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、设置时钟</t>
     </r>
@@ -1493,6 +1633,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">5</t>
     </r>
@@ -1502,6 +1643,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、设置系统镜像源</t>
     </r>
@@ -1513,6 +1655,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">6</t>
     </r>
@@ -1522,6 +1665,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、设置要安装的软件</t>
     </r>
@@ -1533,6 +1677,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">7</t>
     </r>
@@ -1542,6 +1687,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、选择网络接口</t>
     </r>
@@ -1553,6 +1699,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8</t>
     </r>
@@ -1562,6 +1709,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、设置网络接口的配置</t>
     </r>
@@ -1573,6 +1721,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">9</t>
     </r>
@@ -1582,6 +1731,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、设置</t>
     </r>
@@ -1591,6 +1741,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">hostname</t>
     </r>
@@ -1602,6 +1753,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -1611,6 +1763,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、设置需要部署的硬盘</t>
     </r>
@@ -1622,6 +1775,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">11</t>
     </r>
@@ -1631,6 +1785,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、设置硬盘占用空间</t>
     </r>
@@ -1642,6 +1797,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">12</t>
     </r>
@@ -1651,6 +1807,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、设置</t>
     </r>
@@ -1660,6 +1817,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">root</t>
     </r>
@@ -1669,6 +1827,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">密码</t>
     </r>
@@ -1680,6 +1839,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">13</t>
     </r>
@@ -1689,6 +1849,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、设置新用户及其密码</t>
     </r>
@@ -1700,6 +1861,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">14</t>
     </r>
@@ -1709,6 +1871,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、等待自动安装，观察是否成功</t>
     </r>
@@ -1720,6 +1883,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">15</t>
     </r>
@@ -1729,6 +1893,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、重启系统，检查</t>
     </r>
@@ -1738,6 +1903,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">UEFI</t>
     </r>
@@ -1747,6 +1913,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">启动项中是否有新增项，如</t>
     </r>
@@ -1756,6 +1923,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">centos/ubuntu/debian</t>
     </r>
@@ -1767,6 +1935,7 @@
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">16</t>
     </r>
@@ -1776,6 +1945,7 @@
         <color rgb="FF333333"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、点击新增启动项，观察是否正常启动系统</t>
     </r>
@@ -1813,20 +1983,17 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="16"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="AR PL UKai CN"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1840,23 +2007,27 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1872,11 +2043,13 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1888,9 +2061,16 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2029,10 +2209,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2042,131 +2222,131 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="4" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2178,8 +2358,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal" xfId="21" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2274,21 +2454,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.74074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3259259259259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.2814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.11481481481482"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.2148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.84074074074074"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7407407407407"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6222222222222"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.062962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.31111111111111"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2462,7 +2642,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>14</v>
@@ -2475,10 +2655,10 @@
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
@@ -2499,7 +2679,7 @@
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22"/>
       <c r="B10" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>11</v>
@@ -2520,14 +2700,14 @@
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22"/>
       <c r="B11" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>14</v>
@@ -2540,17 +2720,17 @@
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>14</v>
@@ -2571,7 +2751,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>14</v>
@@ -2592,7 +2772,7 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>14</v>
@@ -2615,7 +2795,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>14</v>
@@ -2636,7 +2816,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>14</v>
@@ -2657,7 +2837,7 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>14</v>
@@ -2682,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>14</v>
@@ -2703,7 +2883,7 @@
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>14</v>
@@ -2724,7 +2904,7 @@
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>14</v>
@@ -2745,7 +2925,7 @@
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>14</v>
@@ -2766,7 +2946,7 @@
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>14</v>
@@ -2789,7 +2969,7 @@
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>14</v>
@@ -2810,7 +2990,7 @@
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>14</v>
@@ -2831,7 +3011,7 @@
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>14</v>
@@ -2852,7 +3032,7 @@
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>14</v>
@@ -2873,7 +3053,7 @@
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>14</v>

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="63">
   <si>
     <t xml:space="preserve">测试项目</t>
   </si>
@@ -2217,7 +2217,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2294,10 +2294,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2340,10 +2336,6 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2454,21 +2446,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="H42" activeCellId="0" sqref="H42:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.2148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.84074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.5592592592593"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7407407407407"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.062962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.31111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.3888888888889"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.93703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.937037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8555555555556"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9148148148148"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.8481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.5037037037037"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2522,7 +2514,9 @@
       <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2543,7 +2537,9 @@
       <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2564,7 +2560,9 @@
       <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2585,10 +2583,12 @@
       <c r="G5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" s="21" customFormat="true" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="20" customFormat="true" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2608,8 +2608,10 @@
       <c r="G6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
+      <c r="H6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
@@ -2629,8 +2631,10 @@
       <c r="G7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
+      <c r="H7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
@@ -2650,11 +2654,13 @@
       <c r="G8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
+      <c r="H8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -2673,11 +2679,13 @@
       <c r="G9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="H9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
@@ -2694,11 +2702,13 @@
       <c r="G10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
+      <c r="H10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
@@ -2715,11 +2725,13 @@
       <c r="G11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
+      <c r="H11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -2738,11 +2750,13 @@
       <c r="G12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
@@ -2759,11 +2773,13 @@
       <c r="G13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="14" t="s">
         <v>31</v>
       </c>
@@ -2780,11 +2796,13 @@
       <c r="G14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
+      <c r="H14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -2803,11 +2821,13 @@
       <c r="G15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
+      <c r="H15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
@@ -2824,11 +2844,13 @@
       <c r="G16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
+      <c r="H16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="14" t="s">
         <v>31</v>
       </c>
@@ -2845,8 +2867,10 @@
       <c r="G17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
+      <c r="H17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -2858,7 +2882,7 @@
       <c r="C18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -2870,8 +2894,10 @@
       <c r="G18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
+      <c r="H18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
@@ -2881,7 +2907,7 @@
       <c r="C19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="24"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="16" t="s">
         <v>13</v>
       </c>
@@ -2891,8 +2917,10 @@
       <c r="G19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
+      <c r="H19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
@@ -2902,7 +2930,7 @@
       <c r="C20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="16" t="s">
         <v>13</v>
       </c>
@@ -2912,8 +2940,10 @@
       <c r="G20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
+      <c r="H20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
@@ -2923,7 +2953,7 @@
       <c r="C21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="16" t="s">
         <v>13</v>
       </c>
@@ -2933,8 +2963,10 @@
       <c r="G21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
@@ -2944,7 +2976,7 @@
       <c r="C22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="16" t="s">
         <v>13</v>
       </c>
@@ -2954,8 +2986,10 @@
       <c r="G22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="H22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
@@ -2967,7 +3001,7 @@
       <c r="C23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="24"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="16" t="s">
         <v>13</v>
       </c>
@@ -2977,8 +3011,10 @@
       <c r="G23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
+      <c r="H23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
@@ -2988,7 +3024,7 @@
       <c r="C24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="16" t="s">
         <v>13</v>
       </c>
@@ -2998,8 +3034,10 @@
       <c r="G24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="H24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
@@ -3009,7 +3047,7 @@
       <c r="C25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="24"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="16" t="s">
         <v>13</v>
       </c>
@@ -3019,8 +3057,10 @@
       <c r="G25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="H25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
@@ -3030,7 +3070,7 @@
       <c r="C26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="24"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="16" t="s">
         <v>13</v>
       </c>
@@ -3040,8 +3080,10 @@
       <c r="G26" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
+      <c r="H26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
@@ -3051,7 +3093,7 @@
       <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="24"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="16" t="s">
         <v>13</v>
       </c>
@@ -3061,11 +3103,13 @@
       <c r="G27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
+      <c r="H27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -3074,7 +3118,7 @@
       <c r="C28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="16" t="s">
@@ -3086,18 +3130,20 @@
       <c r="G28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
+      <c r="H28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="16" t="s">
         <v>13</v>
       </c>
@@ -3107,18 +3153,20 @@
       <c r="G29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
+      <c r="H29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="16" t="s">
         <v>13</v>
       </c>
@@ -3128,18 +3176,20 @@
       <c r="G30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
+      <c r="H30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="16" t="s">
         <v>13</v>
       </c>
@@ -3149,18 +3199,20 @@
       <c r="G31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
+      <c r="H31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="16" t="s">
         <v>13</v>
       </c>
@@ -3170,18 +3222,20 @@
       <c r="G32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
+      <c r="H32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="16" t="s">
         <v>13</v>
       </c>
@@ -3191,18 +3245,20 @@
       <c r="G33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
+      <c r="H33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="16" t="s">
         <v>13</v>
       </c>
@@ -3212,18 +3268,20 @@
       <c r="G34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
+      <c r="H34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="26"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="16" t="s">
         <v>13</v>
       </c>
@@ -3233,18 +3291,20 @@
       <c r="G35" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
+      <c r="H35" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="26"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="16" t="s">
         <v>13</v>
       </c>
@@ -3254,18 +3314,20 @@
       <c r="G36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
+      <c r="H36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="26"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="16" t="s">
         <v>13</v>
       </c>
@@ -3275,18 +3337,20 @@
       <c r="G37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
+      <c r="H37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="16" t="s">
         <v>13</v>
       </c>
@@ -3296,18 +3360,20 @@
       <c r="G38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="20"/>
+      <c r="H38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="25"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="16" t="s">
         <v>13</v>
       </c>
@@ -3317,18 +3383,20 @@
       <c r="G39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="20"/>
+      <c r="H39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="16" t="s">
         <v>13</v>
       </c>
@@ -3338,18 +3406,20 @@
       <c r="G40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
+      <c r="H40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="16" t="s">
         <v>13</v>
       </c>
@@ -3359,18 +3429,20 @@
       <c r="G41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
+      <c r="H41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="25"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="26"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="16" t="s">
         <v>13</v>
       </c>
@@ -3380,29 +3452,33 @@
       <c r="G42" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
+      <c r="H42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="19"/>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25"/>
-      <c r="B43" s="27" t="s">
+      <c r="A43" s="24"/>
+      <c r="B43" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="29" t="s">
+      <c r="C43" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="31"/>
-      <c r="I43" s="32"/>
+      <c r="H43" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3427,7 +3503,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F43" type="none">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F43 H2:H43" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
